--- a/Documents/Week8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02ADD04A-74AC-4C56-B985-24279560C528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC7FF1-F716-48BE-8D55-331A9F6300FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -595,7 +595,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -940,7 +940,7 @@
   <dimension ref="A1:J88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>

--- a/Documents/Week8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
+++ b/Documents/Week8/08_Team3WorkRequestRequirementsTraceabilityMatrixTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepo\UMGC_495_7381_Work_Request\Documents\Week8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC7FF1-F716-48BE-8D55-331A9F6300FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B06727-0690-4C6D-9BA3-081565937E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>Test Cases</t>
   </si>
   <si>
-    <t>The site launches properly with all the relevant pages, features, and logo.</t>
-  </si>
-  <si>
     <t>user can register/login to the site</t>
   </si>
   <si>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>User can interact with all work request functionalities.</t>
+  </si>
+  <si>
+    <t>The App launches properly with all the relevant pages, features, and logo.</t>
   </si>
 </sst>
 </file>
@@ -570,6 +570,7 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -595,7 +596,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -958,80 +958,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="2" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
       <c r="D1" s="16"/>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
       <c r="D2" s="14"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="31" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="27"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="12" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="21" t="s">
+      <c r="F3" s="28"/>
+      <c r="G3" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="12" t="s">
         <v>23</v>
       </c>
       <c r="D4" s="15"/>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="26">
+      <c r="F4" s="28"/>
+      <c r="G4" s="27">
         <v>44544</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
@@ -1047,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>26</v>
@@ -1073,25 +1073,25 @@
         <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J6" s="5">
         <v>1001</v>
@@ -1105,25 +1105,25 @@
         <v>11</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J7" s="3">
         <v>1002</v>
@@ -1137,25 +1137,25 @@
         <v>13</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H8" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="19">
         <v>1003</v>
@@ -1163,31 +1163,31 @@
     </row>
     <row r="9" spans="1:10" ht="38.25" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="3">
         <v>1004</v>
@@ -1195,45 +1195,45 @@
     </row>
     <row r="10" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J10" s="3">
         <v>1005</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="32" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" s="21" customFormat="1" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>17</v>
@@ -1242,16 +1242,16 @@
         <v>13</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>23</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J11" s="19">
         <v>1006</v>
@@ -1259,31 +1259,31 @@
     </row>
     <row r="12" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J12" s="3">
         <v>1007</v>
@@ -1291,13 +1291,13 @@
     </row>
     <row r="13" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>18</v>
@@ -1306,16 +1306,16 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="3">
         <v>1008</v>
@@ -1323,31 +1323,31 @@
     </row>
     <row r="14" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14" s="3">
         <v>1009</v>
@@ -1355,31 +1355,31 @@
     </row>
     <row r="15" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="3">
         <v>1010</v>
@@ -1387,31 +1387,31 @@
     </row>
     <row r="16" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="3">
         <v>1011</v>
